--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneVerification.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/BeneVerification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-852020-ETDR\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -44,10 +44,10 @@
     <t>pay_query</t>
   </si>
   <si>
-    <t>Select NICK, ACCOUNT_TITLE from DC_FUND_TRANSFER_BENEFICIARY l where L.CUSTOMER_INFO_ID= (Select customer_info_id from dc_customer_info k where k.customer_name = '{customer_name}') and L.ACCOUNT_NO='{account_no}' and L.IS_DELETED='0'</t>
-  </si>
-  <si>
-    <t>Select COMPANY_NAME, BILL_BENE_NICK, COMPANY_SUB_CATEGORY from DC_BILL_PAYMENT_BENEFICIARY  l where L.CUSTOMER_INFO_ID= (Select customer_info_id from dc_customer_info k where k.customer_name = '{customer_name}') and l.CONSUMER_NUMBER = '{consumer_no}' and L.IS_ACTIVE = '1' and L.COMPANY_NAME = '{company_name}'</t>
+    <t>select  ACCOUNT_NO, ACCOUNT_TITLE, NICK from DC_FUND_TRANSFER_BENEFICIARY b where B.IS_DELETED =0 and B.CUSTOMER_INFO_ID=(Select customer_info_id from dc_customer_info k where k.customer_name = '{customer_name}')</t>
+  </si>
+  <si>
+    <t>Select L.CONSUMER_NUMBER, COMPANY_NAME, BILL_BENE_NICK from DC_BILL_PAYMENT_BENEFICIARY  l where L.CUSTOMER_INFO_ID= (Select customer_info_id from dc_customer_info k where k.customer_name = '{customer_name}') and L.IS_ACTIVE = '1' and L.COMPANY_SUB_CATEGORY = '{company_sub_category}'</t>
   </si>
 </sst>
 </file>
@@ -367,8 +367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
